--- a/cabkee/images/ds_img.xlsx
+++ b/cabkee/images/ds_img.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Hoc_tap_Drive\211\WEB\github\Assign\cabkee\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863D58A-8546-4061-BAA9-A970F1E54A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5878342-85E0-4B1C-8B79-B0FE0AFC308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="living" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Mã ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Đường dẫn</t>
   </si>
   <si>
-    <t>A001</t>
-  </si>
-  <si>
     <t>A***</t>
   </si>
   <si>
@@ -100,6 +97,108 @@
   </si>
   <si>
     <t>Đèn thanh 3 đèn</t>
+  </si>
+  <si>
+    <t>Hình cùng loại</t>
+  </si>
+  <si>
+    <t>Sutton Sofa, Green Apple</t>
+  </si>
+  <si>
+    <t>A101-1</t>
+  </si>
+  <si>
+    <t>A101-2</t>
+  </si>
+  <si>
+    <t>Sutton Sofa, Mustard</t>
+  </si>
+  <si>
+    <t>A101-3</t>
+  </si>
+  <si>
+    <t>A101-4</t>
+  </si>
+  <si>
+    <t>A101-5</t>
+  </si>
+  <si>
+    <t>Sutton Sofa, Chicago Blue</t>
+  </si>
+  <si>
+    <t>Sutton Sofa, Buckwheat</t>
+  </si>
+  <si>
+    <t>Sutton Sofa, Mountain Gray</t>
+  </si>
+  <si>
+    <t>A102-1</t>
+  </si>
+  <si>
+    <t>Logan Apartment Sofa, Chicago Blue</t>
+  </si>
+  <si>
+    <t>A103-1</t>
+  </si>
+  <si>
+    <t>Marco Sofa, Straw</t>
+  </si>
+  <si>
+    <t>A104-1</t>
+  </si>
+  <si>
+    <t>Fabric Reversible Sectional Sofa, Gray</t>
+  </si>
+  <si>
+    <t>A105-1</t>
+  </si>
+  <si>
+    <t>Tokio Maxi Sectional Sofa, Left Corner</t>
+  </si>
+  <si>
+    <t>A106-1</t>
+  </si>
+  <si>
+    <t>Jeannie Velvet Tufted Sectional Sofa, Purple</t>
+  </si>
+  <si>
+    <t>Fabric Club Chair, Wheat</t>
+  </si>
+  <si>
+    <t>Grand Accent Chair</t>
+  </si>
+  <si>
+    <t>Julian Velvet Chair, Pink, Gold base</t>
+  </si>
+  <si>
+    <t>A202-1</t>
+  </si>
+  <si>
+    <t>A203-1</t>
+  </si>
+  <si>
+    <t>A204-1</t>
+  </si>
+  <si>
+    <t>A201-1</t>
+  </si>
+  <si>
+    <t>Century Accent Side Chair, Grey</t>
+  </si>
+  <si>
+    <t>A205-1</t>
+  </si>
+  <si>
+    <t>Rockwell Chair, Orange</t>
+  </si>
+  <si>
+    <t>bg-A1</t>
+  </si>
+  <si>
+    <t>banner living room</t>
+  </si>
+  <si>
+    <t>A001-1</t>
   </si>
 </sst>
 </file>
@@ -108,9 +207,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +236,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,12 +287,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -468,28 +576,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G41"/>
+  <dimension ref="C3:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="8.796875" style="2"/>
-    <col min="4" max="4" width="38.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.59765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="2"/>
+    <col min="8" max="8" width="19.69921875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -497,21 +606,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>1600000</v>
@@ -521,107 +633,238 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17680000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15030000</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>17680000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15030000</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17680000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15030000</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17680000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15030000</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17680000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15030000</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>16280000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13840000</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19180000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>16310000</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
+        <v>27890000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17070000</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30120000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>28870000</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>28900000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>22240000</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4230000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3320000</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1790000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1180000</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1240000</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3680000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2610000</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5470000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4400000</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -793,7 +1036,7 @@
   <sheetData>
     <row r="4" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -808,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -932,7 +1175,7 @@
     <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -948,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -960,10 +1203,10 @@
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>1800000</v>
@@ -1093,7 +1336,7 @@
     <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1109,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -1121,10 +1364,10 @@
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="4">
         <v>1200000</v>
@@ -1239,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C154C1E-F645-477E-B400-A65C00CF8E87}">
   <dimension ref="B4:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1497,7 @@
     <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1270,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -1282,10 +1525,10 @@
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>1600000</v>
@@ -1298,10 +1541,10 @@
     <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>1400000</v>
@@ -1423,7 +1666,7 @@
     <row r="4" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1439,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -1451,10 +1694,10 @@
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>1800000</v>
